--- a/GroceryApplication/src/test/resources/Test Data.xlsx
+++ b/GroceryApplication/src/test/resources/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\Selenium\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD8B5C9-B7FE-4F99-8FC1-E21DEB3653A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D12AAE-8BB7-4943-A746-7604EA5F5D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>user123</t>
+  </si>
+  <si>
+    <t>password123</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,10 +408,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
